--- a/fifo_cg.xlsx
+++ b/fifo_cg.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Covergroup</t>
   </si>
@@ -44,6 +44,27 @@
   </si>
   <si>
     <t>SPLIT_BINS:wrap_on_full= {0,1}</t>
+  </si>
+  <si>
+    <t>Cross coverage</t>
+  </si>
+  <si>
+    <t>wr_en_vs_full</t>
+  </si>
+  <si>
+    <t>rd_en_vs_full</t>
+  </si>
+  <si>
+    <t>rd_en_vs_empty</t>
+  </si>
+  <si>
+    <t>wr_en_vs_empty</t>
+  </si>
+  <si>
+    <t>wr_en_vs_wrap_on_full</t>
+  </si>
+  <si>
+    <t>rd_en_vs_wrap_on_full</t>
   </si>
 </sst>
 </file>
@@ -108,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -126,6 +147,9 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -343,6 +367,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="18.75"/>
     <col customWidth="1" min="2" max="2" width="67.5"/>
     <col customWidth="1" min="3" max="3" width="47.88"/>
     <col customWidth="1" min="4" max="4" width="48.88"/>
@@ -429,6 +454,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
